--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849752.4267849901</v>
+        <v>-852433.2898483988</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.0673550220465</v>
       </c>
       <c r="D2" t="n">
-        <v>11.02029408204788</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>277.8451753808643</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>115.0012431338315</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>22.00678714785396</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>321.3777794208961</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>143.1957654651655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>122.8652318133626</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>242.8844933965415</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>162.9670767937819</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>113.5369542641428</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>58.1765082647084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922673</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.69463930751006</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>20.88994825141629</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>157.7778550769723</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>46.15319674220957</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>13.74238375877706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.16611136584753</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652732</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.108488495616</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C2" t="n">
-        <v>825.108488495616</v>
+        <v>1129.276379452894</v>
       </c>
       <c r="D2" t="n">
-        <v>813.9768783117293</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E2" t="n">
-        <v>813.9768783117293</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F2" t="n">
-        <v>813.9768783117293</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>398.2721280360181</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.847660535549</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559738</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314207</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
         <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
         <v>2508.006390496681</v>
@@ -4519,19 +4519,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2273.220990903993</v>
       </c>
       <c r="V4" t="n">
-        <v>2510.843623222955</v>
+        <v>2018.536502698106</v>
       </c>
       <c r="W4" t="n">
-        <v>2221.426453185994</v>
+        <v>1902.373630845751</v>
       </c>
       <c r="X4" t="n">
-        <v>1993.436902287977</v>
+        <v>1674.384079947733</v>
       </c>
       <c r="Y4" t="n">
-        <v>1772.644323144447</v>
+        <v>1453.591500804203</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2415.4110429995</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2415.4110429995</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2062.642387729386</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1689.176629468306</v>
+        <v>1553.883766169403</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.176629468306</v>
+        <v>1163.744434193592</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.918706901283</v>
+        <v>621.6669618009208</v>
       </c>
       <c r="C7" t="n">
-        <v>493.918706901283</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="D7" t="n">
-        <v>343.8020674889473</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E7" t="n">
-        <v>195.8889739065542</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1124.34930177307</v>
+        <v>1092.732596668121</v>
       </c>
       <c r="W7" t="n">
-        <v>1124.34930177307</v>
+        <v>803.3154266311606</v>
       </c>
       <c r="X7" t="n">
-        <v>896.3597508750529</v>
+        <v>803.3154266311606</v>
       </c>
       <c r="Y7" t="n">
-        <v>675.5671717315228</v>
+        <v>803.3154266311606</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.59552936621</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>1427.33445775347</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583053</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312939</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312939</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.195369430331</v>
+        <v>2172.199996424342</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>684.9695361605187</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100993</v>
+        <v>979.6730931919903</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.759829269319</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2015.115393042426</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.1694341876314</v>
+        <v>736.3507539869237</v>
       </c>
       <c r="C10" t="n">
-        <v>219.2332512597245</v>
+        <v>567.4145710590168</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>567.4145710590168</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>567.4145710590168</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>420.5246235611064</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1381.053222472026</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1381.053222472026</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>1126.368734266139</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W10" t="n">
-        <v>836.9515642291789</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="X10" t="n">
-        <v>608.9620133311615</v>
+        <v>957.1433331304538</v>
       </c>
       <c r="Y10" t="n">
-        <v>388.1694341876314</v>
+        <v>736.3507539869237</v>
       </c>
     </row>
     <row r="11">
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.955329105723</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778161</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830872</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851768</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935963</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.736678450344</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.661451794542</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.976963588655</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.559793551694</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.570242653677</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.7776635101469</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1894.106123115829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,61 +6215,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319336</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656829</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150036</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942668</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580128</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345491</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384035</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111712</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7813,25 +7813,25 @@
         <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>188.2055367489611</v>
       </c>
       <c r="D2" t="n">
-        <v>343.6627475386351</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>134.9670788286161</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.8900140445847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6341900408526</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>59.62759525031598</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>99.26785128072169</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.26785128072164</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837539</v>
+        <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
@@ -26326,7 +26326,7 @@
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
         <v>221965.3149147517</v>
@@ -26341,13 +26341,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.486712678</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289268</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472613</v>
+        <v>52108.58832472618</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426732</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="L4" t="n">
+        <v>16108.17168982547</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982546</v>
       </c>
-      <c r="M4" t="n">
-        <v>16108.17168982548</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982544</v>
-      </c>
       <c r="O4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1073620.789356736</v>
+        <v>-1073980.872372454</v>
       </c>
       <c r="C6" t="n">
-        <v>-1469.285989030526</v>
+        <v>-1469.28598903041</v>
       </c>
       <c r="D6" t="n">
         <v>-1469.285989030512</v>
       </c>
       <c r="E6" t="n">
-        <v>-394759.9689604337</v>
+        <v>-394794.7068858692</v>
       </c>
       <c r="F6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="G6" t="n">
-        <v>112725.4726641127</v>
+        <v>112690.7347386768</v>
       </c>
       <c r="H6" t="n">
-        <v>112725.4726641125</v>
+        <v>112690.734738677</v>
       </c>
       <c r="I6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.734738677</v>
       </c>
       <c r="J6" t="n">
-        <v>-54879.7051458698</v>
+        <v>-54914.44307130554</v>
       </c>
       <c r="K6" t="n">
-        <v>112725.4726641126</v>
+        <v>112690.7347386769</v>
       </c>
       <c r="L6" t="n">
-        <v>87086.48117530538</v>
+        <v>87086.48117530541</v>
       </c>
       <c r="M6" t="n">
-        <v>-26093.09455998958</v>
+        <v>-26093.09455998952</v>
       </c>
       <c r="N6" t="n">
-        <v>106514.1991689373</v>
+        <v>106514.1991689371</v>
       </c>
       <c r="O6" t="n">
         <v>106514.1991689372</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.2846474920397</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.17337718154107</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>71.69110615161762</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,13 +27591,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951984002</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>171.5217552027596</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>229.038462980608</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>48.35332125757293</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>2.225282557765723</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>129.2724115104654</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>139.0458766757203</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>223.2708618622717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>52.76964578066138</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>162.5721877325036</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31534,7 +31534,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31604,22 +31604,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31686,10 +31686,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422178</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,7 +35024,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>530.1364971039797</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35182,7 +35182,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000385</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35337,7 +35337,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35346,7 +35346,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,10 +35887,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
